--- a/target/classes/testdata.xlsx
+++ b/target/classes/testdata.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="program" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="batch" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
@@ -51,6 +51,39 @@
   </si>
   <si>
     <t>SDETpracticeRestAssured</t>
+  </si>
+  <si>
+    <t>batchName</t>
+  </si>
+  <si>
+    <t>batchDescription</t>
+  </si>
+  <si>
+    <t>batchNoOfClasses</t>
+  </si>
+  <si>
+    <t>Jul23-TeamName-ProgramName-BatchName-serialnumber</t>
+  </si>
+  <si>
+    <t>Jul23-Sudha-SDET-SDET01-</t>
+  </si>
+  <si>
+    <t>firstBatch</t>
+  </si>
+  <si>
+    <t>jul23-Sudha-SDET-SDET01-</t>
+  </si>
+  <si>
+    <t>Jul23-Sudha-SDET-SDET02-</t>
+  </si>
+  <si>
+    <t>secondBatch</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>two</t>
   </si>
 </sst>
 </file>
@@ -465,12 +498,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView workbookViewId="0" tabSelected="1">
+      <selection activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
